--- a/suspended_wire/200708/Bi2Te3_p2_power dep_f3p4.xlsx
+++ b/suspended_wire/200708/Bi2Te3_p2_power dep_f3p4.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xueti\Documents\phd dell files\measurement_codes\suspended_wire\200708\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070221EB-7243-438C-AE9A-F4B7E65FF213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77D2345-1DC9-43B7-B0E5-BF0D0F9841E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>Sample</t>
   </si>
@@ -111,6 +112,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Reference0617</t>
   </si>
 </sst>
 </file>
@@ -230,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -274,16 +278,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,9 +490,6 @@
                 <c:pt idx="7">
                   <c:v>45.430433166391538</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
@@ -645,9 +652,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>45.430433166391538</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1176,9 +1180,6 @@
                 <c:pt idx="7">
                   <c:v>3.5681981132075471</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1297,9 +1298,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.5681981132075471</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1690,6 +1688,918 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>p1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> p2 comparison: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>V1w</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. V_input</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>p1 X1_ref</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$4:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.52452500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.59782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.21854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8125599999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.4504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.0616</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.636600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.2592</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.092600000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.457299999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.480399999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.297000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.692300000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.094999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-670E-4E5D-A65C-767DC16E4E05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>p1 Y1_ref</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$4:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.8147299999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.6294500000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.5367999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3351500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5258900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.90736E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.28883E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.0517800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.1961900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.3406000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.866499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.0109099999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.1553200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.10299700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-670E-4E5D-A65C-767DC16E4E05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>p2 X1_ref</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1558600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.36948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.58311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8177099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.15341</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6970100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.23488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7822900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-670E-4E5D-A65C-767DC16E4E05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>p2 Y1_ref</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-1.9070000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9070000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9070000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.8147300000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8147300000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.8147300000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.72208E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>-5.72208E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-670E-4E5D-A65C-767DC16E4E05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="560704888"/>
+        <c:axId val="560708168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="560704888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>V_input(V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560708168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="560708168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>V(mV)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560704888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1770,6 +2680,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2287,6 +3237,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2871,6 +4337,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4441C7-08CF-499E-BC55-B655070420B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3144,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3165,14 +4672,14 @@
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="18"/>
+      <c r="I1" s="20"/>
       <c r="J1" t="s">
         <v>18</v>
       </c>
@@ -3294,16 +4801,16 @@
       <c r="E4" s="4">
         <v>50</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="17">
         <v>-9.0338000000000002E-2</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="17">
         <v>0</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <v>1.1558600000000001</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="18">
         <v>-1.9070000000000001E-3</v>
       </c>
       <c r="L4">
@@ -3339,16 +4846,16 @@
       <c r="E5" s="4">
         <v>50</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="17">
         <v>-0.166708</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="18">
         <v>-1.8619999999999999E-3</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <v>1.36948</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <v>-1.9070000000000001E-3</v>
       </c>
       <c r="L5">
@@ -3384,16 +4891,16 @@
       <c r="E6" s="4">
         <v>50</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="17">
         <v>-0.26356600000000002</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <v>-2.794E-3</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <v>1.58311</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <v>-1.9070000000000001E-3</v>
       </c>
       <c r="L6">
@@ -3640,35 +5147,15 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="11">
-        <v>100</v>
-      </c>
-      <c r="D12" s="11">
-        <v>20</v>
-      </c>
-      <c r="E12" s="11">
-        <v>50</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="9"/>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="N12" s="5"/>
       <c r="O12" s="16"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="16"/>
@@ -3907,4 +5394,441 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF225E89-FEEA-4890-B6B1-CF4E7E572501}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="1"/>
+      <c r="G1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B4">
+        <v>1.090433962264151</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1.1558600000000001</v>
+      </c>
+      <c r="D4" s="18">
+        <v>-1.9070000000000001E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F4">
+        <v>0.17484166666666665</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.52452500000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="B5">
+        <v>1.2919622641509434</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1.36948</v>
+      </c>
+      <c r="D5" s="18">
+        <v>-1.9070000000000001E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F5">
+        <v>0.86593999999999993</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.59782</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-3.8147299999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>1.4935</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1.58311</v>
+      </c>
+      <c r="D6" s="18">
+        <v>-1.9070000000000001E-3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <v>1.7395133333333332</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.21854</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-7.6294500000000003E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="B7">
+        <v>1.7148207547169809</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.8177099999999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-3.8147300000000001E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F7">
+        <v>2.6041866666666662</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7.8125599999999995</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-9.5367999999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2.0315188679245284</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2.15341</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-3.8147300000000001E-3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F8">
+        <v>3.4834666666666667</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10.4504</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-1.3351500000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B9">
+        <v>2.5443490566037736</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2.6970100000000001</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-3.8147300000000001E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F9">
+        <v>4.3538666666666668</v>
+      </c>
+      <c r="G9" s="1">
+        <v>13.0616</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-1.5258900000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3.0517735849056602</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3.23488</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-5.72208E-3</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F10">
+        <v>5.2122000000000002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>15.636600000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-1.90736E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="B11">
+        <v>3.5681981132075471</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3.7822900000000002</v>
+      </c>
+      <c r="D11" s="9">
+        <v>-5.72208E-3</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="F11">
+        <v>6.0863999999999994</v>
+      </c>
+      <c r="G11" s="1">
+        <v>18.2592</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-2.28883E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>8.6975333333333342</v>
+      </c>
+      <c r="G12" s="1">
+        <v>26.092600000000001</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-3.0517800000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="F13">
+        <v>12.152433333333333</v>
+      </c>
+      <c r="G13" s="1">
+        <v>36.457299999999996</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-4.1961900000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="F14">
+        <v>15.493466666666665</v>
+      </c>
+      <c r="G14" s="1">
+        <v>46.480399999999996</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-5.3406000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F15">
+        <v>19.099</v>
+      </c>
+      <c r="G15" s="1">
+        <v>57.297000000000004</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-6.866499999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="22">
+        <v>1.3</v>
+      </c>
+      <c r="F16">
+        <v>22.5641</v>
+      </c>
+      <c r="G16" s="1">
+        <v>67.692300000000003</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-8.0109099999999989E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="F17">
+        <v>26.031666666666666</v>
+      </c>
+      <c r="G17" s="1">
+        <v>78.094999999999999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-9.1553200000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="22">
+        <v>1.7</v>
+      </c>
+      <c r="F18">
+        <v>29.496666666666666</v>
+      </c>
+      <c r="G18" s="1">
+        <v>88.49</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-0.10299700000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>